--- a/ass2/Start_up_codes_LetterRecognition_v2/data.xlsx
+++ b/ass2/Start_up_codes_LetterRecognition_v2/data.xlsx
@@ -8,25 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tommy/Desktop/studyInMassey/159_740Studies in Intelligent Systems/ass2/Start_up_codes_LetterRecognition_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD97D9-6433-DA46-8738-EFB583654A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEECB02-46DB-0941-9C27-1E8F924DE6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40240" yWindow="460" windowWidth="28040" windowHeight="21140" activeTab="3" xr2:uid="{3AC73309-C196-3C48-9587-CCBA209445EF}"/>
+    <workbookView xWindow="41480" yWindow="460" windowWidth="28040" windowHeight="21140" xr2:uid="{3AC73309-C196-3C48-9587-CCBA209445EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="model1" sheetId="2" r:id="rId2"/>
-    <sheet name="model2" sheetId="3" r:id="rId3"/>
-    <sheet name="model3" sheetId="4" r:id="rId4"/>
+    <sheet name="model1" sheetId="2" r:id="rId1"/>
+    <sheet name="model2" sheetId="3" r:id="rId2"/>
+    <sheet name="model3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">model3!$C$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">model3!$C$5:$C$54</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">model3!$D$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">model3!$D$5:$D$54</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">model3!$C$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">model3!$C$5:$C$54</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">model3!$D$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">model3!$D$5:$D$54</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">model1!$D$55</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">model1!$I$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">model1!$D$5</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">model1!$D$55</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">model1!$H$3:$I$3</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">model1!$H$4:$I$4</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">model1!$D$55</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">model1!$I$4</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">model1!$C$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">model1!$C$55</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">model1!$D$5</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">model1!$D$55</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">model1!$C$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">model1!$H$3:$I$3</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">model1!$H$4:$I$4</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">model1!$C$5</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">model1!$C$55</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">model1!$D$5</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">model1!$D$55</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">model1!$H$3:$I$3</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">model1!$H$4:$I$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">model1!$C$55</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">model1!$D$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">model1!$D$55</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">model1!$H$3:$I$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">model1!$H$4:$I$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">model1!$C$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">model1!$C$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Architecture</t>
   </si>
@@ -78,15 +98,6 @@
   </si>
   <si>
     <t>weights_activefun0_epoch50_lr0.02.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿weights_activefun0_epoch50_lr0.008.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿weights_activefun1_epoch50_lr0.004.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SSE</t>
@@ -134,6 +145,28 @@
   </si>
   <si>
     <t>ReLU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weights_activefun1_epoch50_lr0.004.txt</t>
+  </si>
+  <si>
+    <t>weights_activefun0_epoch50_lr0.008.txt</t>
+  </si>
+  <si>
+    <t>Test result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,66 +356,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -401,6 +374,69 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,7 +553,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$C$4</c:f>
+              <c:f>model1!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -540,7 +576,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>model1!$A$5:$A$54</c:f>
+              <c:f>model1!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -699,7 +735,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!$C$5:$C$54</c:f>
+              <c:f>model1!$C$6:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -868,7 +904,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$D$4</c:f>
+              <c:f>model1!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -891,7 +927,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>model1!$A$5:$A$54</c:f>
+              <c:f>model1!$A$6:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1050,7 +1086,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!$D$5:$D$54</c:f>
+              <c:f>model1!$D$6:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1444,6 +1480,368 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>PGC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test result</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.95361560000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71F6-7C44-AB19-5A1619830187}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train result</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.96844390000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-71F6-7C44-AB19-5A1619830187}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1936464415"/>
+        <c:axId val="1973345343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1936464415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1973345343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1973345343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1936464415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>model</a:t>
             </a:r>
             <a:r>
@@ -1510,7 +1908,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>model2!$C$4</c:f>
+              <c:f>model2!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1533,7 +1931,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>model2!$C$5:$C$54</c:f>
+              <c:f>model2!$C$6:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1702,7 +2100,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>model2!$D$4</c:f>
+              <c:f>model2!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1725,7 +2123,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>model2!$D$5:$D$54</c:f>
+              <c:f>model2!$D$6:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2084,7 +2482,370 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>PGC</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model2!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>model2!$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.97352349999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FFF-7B44-9A46-E0280A51AD5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>model2!$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.98898870000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5FFF-7B44-9A46-E0280A51AD5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1972327535"/>
+        <c:axId val="1883305999"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1972327535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883305999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1883305999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1972327535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2875,6 +3636,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3392,7 +4233,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3500,11 +4341,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3515,11 +4351,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3551,9 +4382,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4423,20 +5251,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>100330</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4461,6 +6308,86 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B40111-CAC8-294A-87C0-F081460216A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355599</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>48310</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C36B957-5A13-6542-BA91-2822061682FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657599" y="8991600"/>
+          <a:ext cx="11249711" cy="3289300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4468,16 +6395,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4502,6 +6429,86 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C010B8-CB43-1F45-A626-91CB023D4B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>116401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073E6F67-33B8-A345-9F61-6EFC06023CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="8724900"/>
+          <a:ext cx="11430000" cy="2973901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4515,10 +6522,10 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>637116</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>178635</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4541,6 +6548,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276822</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A80CDC1-2B10-7E4F-BE50-E977F9803E15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="6769100"/>
+          <a:ext cx="11884622" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4842,11 +6893,2523 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4BCBFB-E560-4F4A-93B3-E957519DF392}">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="G4">
+        <v>185.53800000000001</v>
+      </c>
+      <c r="H4">
+        <v>4.6384399999999999E-2</v>
+      </c>
+      <c r="I4">
+        <f>1-H4</f>
+        <v>0.95361560000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4388</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.27424999999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <f>1-C6</f>
+        <v>0.72575000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2910.38</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.18189900000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:D55" si="0">1-C7</f>
+        <v>0.81810099999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2454.38</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.15339900000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84660099999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2192.39</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.13702400000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.86297599999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2053.3200000000002</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.128332</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.871668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1871.5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.116969</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.88303100000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1706.76</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.106672</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89332800000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1598.41</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9.9900699999999995E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90009930000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1492.55</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9.3284599999999995E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90671539999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1451.59</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9.0724600000000002E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90927539999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1365.82</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8.5363499999999995E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91463649999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1264.77</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7.9048300000000002E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92095170000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1175.0899999999999</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7.3443300000000003E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92655670000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1167.95</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7.2996599999999995E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92700340000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1145.8399999999999</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7.1614800000000006E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92838520000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1094.29</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6.8393399999999993E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93160660000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1068.6600000000001</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6.6791100000000006E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93320890000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1036.48</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6.4779900000000001E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9352201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3">
+        <v>979.92499999999995</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6.1245300000000003E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93875470000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3">
+        <v>930.77200000000005</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5.8173299999999997E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94182670000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
+        <v>909.78700000000003</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5.6861700000000001E-2</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94313829999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>907.38699999999994</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5.6711699999999997E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94328829999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3">
+        <v>860.96</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5.3809999999999997E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94618999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3">
+        <v>770.02200000000005</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.8126299999999997E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95187370000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3">
+        <v>749.01300000000003</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4.6813300000000002E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95318670000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3">
+        <v>746.98500000000001</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.6686600000000002E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95331339999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>26</v>
+      </c>
+      <c r="B32" s="3">
+        <v>710.65099999999995</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4.4415700000000002E-2</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95558429999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3">
+        <v>733.70799999999997</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.58567E-2</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95414330000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3">
+        <v>675.99</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4.2249399999999999E-2</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95775060000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3">
+        <v>698.04300000000001</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4.3627699999999998E-2</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95637229999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3">
+        <v>658.49800000000005</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4.1156100000000001E-2</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95884389999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3">
+        <v>631.38</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3.9461200000000002E-2</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96053880000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3">
+        <v>627.47900000000004</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3.9217399999999999E-2</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96078260000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3">
+        <v>631.45500000000004</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3.9465899999999998E-2</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96053410000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3">
+        <v>653.86599999999999</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4.0866600000000003E-2</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95913340000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3">
+        <v>623.59</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3.8974399999999999E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96102560000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3">
+        <v>639.63199999999995</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3.9976999999999999E-2</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96002299999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>37</v>
+      </c>
+      <c r="B43" s="3">
+        <v>576.34500000000003</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3.6021600000000001E-2</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96397840000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>38</v>
+      </c>
+      <c r="B44" s="3">
+        <v>612.39499999999998</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3.8274700000000002E-2</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96172530000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>39</v>
+      </c>
+      <c r="B45" s="3">
+        <v>625.61</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3.9100599999999999E-2</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96089939999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>40</v>
+      </c>
+      <c r="B46" s="3">
+        <v>602.49400000000003</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3.7655899999999999E-2</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96234410000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
+        <v>41</v>
+      </c>
+      <c r="B47" s="3">
+        <v>556.36599999999999</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3.4772900000000002E-2</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9652271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>42</v>
+      </c>
+      <c r="B48" s="3">
+        <v>565.80799999999999</v>
+      </c>
+      <c r="C48" s="3">
+        <v>3.5362999999999999E-2</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96463699999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3">
+        <v>43</v>
+      </c>
+      <c r="B49" s="3">
+        <v>521.23099999999999</v>
+      </c>
+      <c r="C49" s="3">
+        <v>3.2576899999999999E-2</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96742309999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3">
+        <v>44</v>
+      </c>
+      <c r="B50" s="3">
+        <v>480.03899999999999</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3.0002399999999999E-2</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96999760000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3">
+        <v>45</v>
+      </c>
+      <c r="B51" s="3">
+        <v>511.92500000000001</v>
+      </c>
+      <c r="C51" s="3">
+        <v>3.1995299999999997E-2</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96800470000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3">
+        <v>46</v>
+      </c>
+      <c r="B52" s="3">
+        <v>543.774</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3.3985899999999999E-2</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96601409999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3">
+        <v>47</v>
+      </c>
+      <c r="B53" s="3">
+        <v>478.41899999999998</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2.9901199999999999E-2</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97009880000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3">
+        <v>48</v>
+      </c>
+      <c r="B54" s="3">
+        <v>465.64800000000002</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2.9103E-2</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97089700000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3">
+        <v>49</v>
+      </c>
+      <c r="B55" s="3">
+        <v>504.89699999999999</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3.1556099999999997E-2</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96844390000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EA46E6-E544-D446-A120-731A7F7A189C}">
+  <dimension ref="A1:J55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D55" activeCellId="1" sqref="J7 D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3977.85</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.248615</v>
+      </c>
+      <c r="D6" s="3">
+        <f>1-C6</f>
+        <v>0.75138499999999997</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2529.9699999999998</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.15812300000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:D55" si="0">1-C7</f>
+        <v>0.84187699999999999</v>
+      </c>
+      <c r="H7">
+        <v>105.90600000000001</v>
+      </c>
+      <c r="I7">
+        <v>2.64765E-2</v>
+      </c>
+      <c r="J7">
+        <f>1-I7</f>
+        <v>0.97352349999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2007.63</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.12547700000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.87452299999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1699.81</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.106238</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89376199999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1498.04</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.3627500000000002E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90637250000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1350.31</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.4394499999999997E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91560549999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1228.06</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7.6754000000000003E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92324600000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1129.81</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.0613099999999998E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92938690000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1044.3499999999999</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6.52721E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93472789999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>977.33299999999997</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.10833E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93891670000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>919.14300000000003</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5.7446400000000002E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94255359999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3">
+        <v>860.82299999999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5.3801399999999999E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9461986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>805.59100000000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.0349400000000002E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94965060000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>762.76400000000001</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.7672800000000001E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95232720000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
+        <v>721.93499999999995</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4.5120899999999999E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95487909999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>688.77599999999995</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4.3048500000000003E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95695149999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3">
+        <v>657.48800000000006</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4.1092999999999998E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95890699999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3">
+        <v>633.6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96040000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3">
+        <v>600.20899999999995</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3.7513100000000001E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96248690000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3">
+        <v>570.91899999999998</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3.5682400000000003E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9643176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
+        <v>547.71</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3.4231900000000003E-2</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96576810000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3">
+        <v>540.62300000000005</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3.3788899999999997E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96621109999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3">
+        <v>507.97800000000001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3.1748600000000002E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96825139999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3">
+        <v>482.173</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3.0135800000000001E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96986419999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3">
+        <v>463.85599999999999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2.8990999999999999E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97100900000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3">
+        <v>443.685</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2.7730299999999999E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97226970000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>26</v>
+      </c>
+      <c r="B32" s="3">
+        <v>425.34399999999999</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2.6584E-2</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97341599999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>27</v>
+      </c>
+      <c r="B33" s="3">
+        <v>405.69</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2.5355599999999999E-2</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97464439999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3">
+        <v>389.14699999999999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2.4321700000000002E-2</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9756783</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3">
+        <v>374.35300000000001</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2.3397100000000001E-2</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97660290000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3">
+        <v>360.702</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2.2543899999999999E-2</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97745610000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3">
+        <v>347.72399999999999</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2.17328E-2</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9782672</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3">
+        <v>335.89600000000002</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2.0993499999999998E-2</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9790065</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3">
+        <v>324.51100000000002</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2.0281899999999999E-2</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97971810000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3">
+        <v>313.29000000000002</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1.95806E-2</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98041940000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3">
+        <v>300.90800000000002</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1.8806799999999999E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98119319999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3">
+        <v>289.82600000000002</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1.81142E-2</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98188580000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>37</v>
+      </c>
+      <c r="B43" s="3">
+        <v>281.62700000000001</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1.7601700000000001E-2</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98239829999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>38</v>
+      </c>
+      <c r="B44" s="3">
+        <v>269.84100000000001</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1.6865000000000002E-2</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98313499999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>39</v>
+      </c>
+      <c r="B45" s="3">
+        <v>263.38200000000001</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1.6461400000000001E-2</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98353860000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>40</v>
+      </c>
+      <c r="B46" s="3">
+        <v>249.054</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1.5565900000000001E-2</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98443409999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
+        <v>41</v>
+      </c>
+      <c r="B47" s="3">
+        <v>239.33799999999999</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1.4958600000000001E-2</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98504139999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>42</v>
+      </c>
+      <c r="B48" s="3">
+        <v>229.292</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1.4330799999999999E-2</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98566920000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3">
+        <v>43</v>
+      </c>
+      <c r="B49" s="3">
+        <v>220.61199999999999</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1.37883E-2</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98621170000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3">
+        <v>44</v>
+      </c>
+      <c r="B50" s="3">
+        <v>212.30799999999999</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1.3269299999999999E-2</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98673069999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3">
+        <v>45</v>
+      </c>
+      <c r="B51" s="3">
+        <v>204.86199999999999</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1.28039E-2</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98719610000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3">
+        <v>46</v>
+      </c>
+      <c r="B52" s="3">
+        <v>197.39400000000001</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1.23371E-2</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98766290000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3">
+        <v>47</v>
+      </c>
+      <c r="B53" s="3">
+        <v>189.67699999999999</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1.18548E-2</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98814519999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3">
+        <v>48</v>
+      </c>
+      <c r="B54" s="3">
+        <v>182.66499999999999</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1.1416600000000001E-2</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9885834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3">
+        <v>49</v>
+      </c>
+      <c r="B55" s="3">
+        <v>176.18</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1.10113E-2</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98898870000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BFE694-5F11-844E-B8C3-B06174379F8E}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3669.61</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.22935</v>
+      </c>
+      <c r="D5" s="3">
+        <f>1-C5</f>
+        <v>0.77065000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2474.67</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.154667</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D54" si="0">1-C6</f>
+        <v>0.845333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2011.41</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.12571299999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.87428700000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1740.75</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.108797</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89120299999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1546.02</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9.6626500000000004E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90337350000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1421.49</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8.8843400000000003E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91115659999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1246.73</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7.7920500000000004E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92207949999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1219.42</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7.6213400000000001E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92378660000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1116.06</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.9753899999999994E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93024609999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1127.17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7.04481E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92955189999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1076.8800000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.7304699999999995E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9326953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1013.61</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.3350500000000004E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93664950000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3">
+        <v>973.64800000000002</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6.0852999999999997E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93914699999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <v>931.31100000000004</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.8207000000000002E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94179299999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <v>899.88199999999995</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5.6242599999999997E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94375739999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>854.29899999999998</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5.3393700000000002E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94660630000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>865.49599999999998</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5.4093500000000003E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94590649999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3">
+        <v>838.56700000000001</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5.2410400000000003E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94758960000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3">
+        <v>830.17200000000003</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5.18857E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94811429999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3">
+        <v>847.69299999999998</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5.2980800000000002E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94701919999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3">
+        <v>827.98900000000003</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5.1749299999999998E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9482507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3">
+        <v>727.48599999999999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4.5467899999999999E-2</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95453209999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3">
+        <v>729.29499999999996</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4.5580900000000001E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95441909999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3">
+        <v>750.57</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4.6910599999999997E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95308939999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3">
+        <v>665.34100000000001</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.1583799999999997E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95841620000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3">
+        <v>737.61099999999999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4.6100700000000001E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95389930000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3">
+        <v>795.27499999999998</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.9704699999999997E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95029529999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3">
+        <v>670.19299999999998</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4.1887099999999997E-2</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95811290000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3">
+        <v>767.48</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.7967500000000003E-2</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95203249999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3">
+        <v>706.93</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4.4183199999999999E-2</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95581680000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3">
+        <v>607.20799999999997</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3.7950499999999998E-2</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9620495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3">
+        <v>626.22500000000002</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3.9139100000000003E-2</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96086090000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3">
+        <v>692.95500000000004</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4.33097E-2</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95669029999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3">
+        <v>695.83600000000001</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4.3489800000000002E-2</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95651019999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3">
+        <v>717.08799999999997</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4.4817999999999997E-2</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95518199999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="3">
+        <v>686.77599999999995</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4.2923500000000003E-2</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9570765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3">
+        <v>697.80100000000004</v>
+      </c>
+      <c r="C41" s="3">
+        <v>4.3612499999999998E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95638749999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="3">
+        <v>705.12</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4.4069999999999998E-2</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95592999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3">
+        <v>772.35</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4.82719E-2</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95172809999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="3">
+        <v>726.34799999999996</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4.5396800000000001E-2</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95460319999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="3">
+        <v>671.23400000000004</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4.1952099999999999E-2</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95804789999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="3">
+        <v>704.88400000000001</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4.4055200000000003E-2</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95594480000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="3">
+        <v>665.70799999999997</v>
+      </c>
+      <c r="C47" s="3">
+        <v>4.1606799999999999E-2</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95839319999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3">
+        <v>650.524</v>
+      </c>
+      <c r="C48" s="3">
+        <v>4.0657699999999998E-2</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95934229999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="3">
+        <v>706.50400000000002</v>
+      </c>
+      <c r="C49" s="3">
+        <v>4.4156500000000001E-2</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95584349999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3">
+        <v>45</v>
+      </c>
+      <c r="B50" s="3">
+        <v>614.22500000000002</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3.8389100000000002E-2</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96161090000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="3">
+        <v>642.91300000000001</v>
+      </c>
+      <c r="C51" s="3">
+        <v>4.0182000000000002E-2</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95981799999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="3">
+        <v>538.31399999999996</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3.3644599999999997E-2</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96635539999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="3">
+        <v>592.053</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3.7003300000000003E-2</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96299670000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="3">
+        <v>576.02300000000002</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3.6001499999999999E-2</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96399849999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1A47E1-7596-0449-B65E-74DED9659E9B}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4860,156 +9423,157 @@
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="6" customHeight="1" thickBot="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="17" thickBot="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="24" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="40" thickBot="1">
-      <c r="A5" s="27">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="28">
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8">
         <v>4.78634E-2</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="8">
         <v>95.213700000000003</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="8">
         <v>5.0727599999999998E-2</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="8">
         <v>94.927199999999999</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="40" thickBot="1">
-      <c r="A6" s="27">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="8">
         <v>0.02</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="8">
         <v>4.1434600000000002E-2</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="8">
         <v>95.856499999999997</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="8">
         <v>4.6384399999999999E-2</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="8">
         <v>95.361599999999996</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40" thickBot="1">
-      <c r="A7" s="27">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="28">
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8">
         <v>2.2002600000000001E-2</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="8">
         <v>97.799700000000001</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="8">
         <v>2.64765E-2</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="8">
         <v>97.3523</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="8">
         <v>50</v>
       </c>
     </row>
@@ -5031,2463 +9595,15 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
     <mergeCell ref="G1:H3"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="E1:F3"/>
     <mergeCell ref="I1:I3"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4BCBFB-E560-4F4A-93B3-E957519DF392}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C3" s="3">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4388</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.27424999999999999</v>
-      </c>
-      <c r="D5" s="3">
-        <f>1-C5</f>
-        <v>0.72575000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2910.38</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.18189900000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D54" si="0">1-C6</f>
-        <v>0.81810099999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2454.38</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.15339900000000001</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.84660099999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2192.39</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.13702400000000001</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.86297599999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2053.3200000000002</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.128332</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.871668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1871.5</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.116969</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.88303100000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1706.76</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.106672</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.89332800000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1598.41</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9.9900699999999995E-2</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.90009930000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1492.55</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9.3284599999999995E-2</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.90671539999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1451.59</v>
-      </c>
-      <c r="C14" s="3">
-        <v>9.0724600000000002E-2</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.90927539999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1365.82</v>
-      </c>
-      <c r="C15" s="3">
-        <v>8.5363499999999995E-2</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.91463649999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1264.77</v>
-      </c>
-      <c r="C16" s="3">
-        <v>7.9048300000000002E-2</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92095170000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1175.0899999999999</v>
-      </c>
-      <c r="C17" s="3">
-        <v>7.3443300000000003E-2</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92655670000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1167.95</v>
-      </c>
-      <c r="C18" s="3">
-        <v>7.2996599999999995E-2</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92700340000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1145.8399999999999</v>
-      </c>
-      <c r="C19" s="3">
-        <v>7.1614800000000006E-2</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92838520000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1094.29</v>
-      </c>
-      <c r="C20" s="3">
-        <v>6.8393399999999993E-2</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93160660000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1068.6600000000001</v>
-      </c>
-      <c r="C21" s="3">
-        <v>6.6791100000000006E-2</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93320890000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1036.48</v>
-      </c>
-      <c r="C22" s="3">
-        <v>6.4779900000000001E-2</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9352201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3">
-        <v>979.92499999999995</v>
-      </c>
-      <c r="C23" s="3">
-        <v>6.1245300000000003E-2</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93875470000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3">
-        <v>930.77200000000005</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5.8173299999999997E-2</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94182670000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3">
-        <v>909.78700000000003</v>
-      </c>
-      <c r="C25" s="3">
-        <v>5.6861700000000001E-2</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94313829999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3">
-        <v>907.38699999999994</v>
-      </c>
-      <c r="C26" s="3">
-        <v>5.6711699999999997E-2</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94328829999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3">
-        <v>860.96</v>
-      </c>
-      <c r="C27" s="3">
-        <v>5.3809999999999997E-2</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94618999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3">
-        <v>770.02200000000005</v>
-      </c>
-      <c r="C28" s="3">
-        <v>4.8126299999999997E-2</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95187370000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="3">
-        <v>749.01300000000003</v>
-      </c>
-      <c r="C29" s="3">
-        <v>4.6813300000000002E-2</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95318670000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3">
-        <v>746.98500000000001</v>
-      </c>
-      <c r="C30" s="3">
-        <v>4.6686600000000002E-2</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95331339999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="3">
-        <v>710.65099999999995</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4.4415700000000002E-2</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95558429999999994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="3">
-        <v>733.70799999999997</v>
-      </c>
-      <c r="C32" s="3">
-        <v>4.58567E-2</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95414330000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3">
-        <v>675.99</v>
-      </c>
-      <c r="C33" s="3">
-        <v>4.2249399999999999E-2</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95775060000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="3">
-        <v>698.04300000000001</v>
-      </c>
-      <c r="C34" s="3">
-        <v>4.3627699999999998E-2</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95637229999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="3">
-        <v>658.49800000000005</v>
-      </c>
-      <c r="C35" s="3">
-        <v>4.1156100000000001E-2</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95884389999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="3">
-        <v>631.38</v>
-      </c>
-      <c r="C36" s="3">
-        <v>3.9461200000000002E-2</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96053880000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3">
-        <v>627.47900000000004</v>
-      </c>
-      <c r="C37" s="3">
-        <v>3.9217399999999999E-2</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96078260000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="3">
-        <v>631.45500000000004</v>
-      </c>
-      <c r="C38" s="3">
-        <v>3.9465899999999998E-2</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96053410000000006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="3">
-        <v>653.86599999999999</v>
-      </c>
-      <c r="C39" s="3">
-        <v>4.0866600000000003E-2</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95913340000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="3">
-        <v>623.59</v>
-      </c>
-      <c r="C40" s="3">
-        <v>3.8974399999999999E-2</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96102560000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="3">
-        <v>639.63199999999995</v>
-      </c>
-      <c r="C41" s="3">
-        <v>3.9976999999999999E-2</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96002299999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="3">
-        <v>576.34500000000003</v>
-      </c>
-      <c r="C42" s="3">
-        <v>3.6021600000000001E-2</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96397840000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="3">
-        <v>612.39499999999998</v>
-      </c>
-      <c r="C43" s="3">
-        <v>3.8274700000000002E-2</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96172530000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="3">
-        <v>625.61</v>
-      </c>
-      <c r="C44" s="3">
-        <v>3.9100599999999999E-2</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96089939999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="3">
-        <v>602.49400000000003</v>
-      </c>
-      <c r="C45" s="3">
-        <v>3.7655899999999999E-2</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96234410000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="3">
-        <v>556.36599999999999</v>
-      </c>
-      <c r="C46" s="3">
-        <v>3.4772900000000002E-2</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9652271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="3">
-        <v>565.80799999999999</v>
-      </c>
-      <c r="C47" s="3">
-        <v>3.5362999999999999E-2</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96463699999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="3">
-        <v>521.23099999999999</v>
-      </c>
-      <c r="C48" s="3">
-        <v>3.2576899999999999E-2</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96742309999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="3">
-        <v>480.03899999999999</v>
-      </c>
-      <c r="C49" s="3">
-        <v>3.0002399999999999E-2</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96999760000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3">
-        <v>45</v>
-      </c>
-      <c r="B50" s="3">
-        <v>511.92500000000001</v>
-      </c>
-      <c r="C50" s="3">
-        <v>3.1995299999999997E-2</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96800470000000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="3">
-        <v>543.774</v>
-      </c>
-      <c r="C51" s="3">
-        <v>3.3985899999999999E-2</v>
-      </c>
-      <c r="D51" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96601409999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="3">
-        <v>478.41899999999998</v>
-      </c>
-      <c r="C52" s="3">
-        <v>2.9901199999999999E-2</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97009880000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="3">
-        <v>465.64800000000002</v>
-      </c>
-      <c r="C53" s="3">
-        <v>2.9103E-2</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97089700000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="3">
-        <v>504.89699999999999</v>
-      </c>
-      <c r="C54" s="3">
-        <v>3.1556099999999997E-2</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96844390000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EA46E6-E544-D446-A120-731A7F7A189C}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3977.85</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.248615</v>
-      </c>
-      <c r="D5" s="3">
-        <f>1-C5</f>
-        <v>0.75138499999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2529.9699999999998</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.15812300000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D54" si="0">1-C6</f>
-        <v>0.84187699999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2007.63</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.12547700000000001</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.87452299999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1699.81</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.106238</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.89376199999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1498.04</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9.3627500000000002E-2</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.90637250000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1350.31</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8.4394499999999997E-2</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.91560549999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1228.06</v>
-      </c>
-      <c r="C11" s="3">
-        <v>7.6754000000000003E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92324600000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1129.81</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7.0613099999999998E-2</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92938690000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1044.3499999999999</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.52721E-2</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93472789999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3">
-        <v>977.33299999999997</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6.10833E-2</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93891670000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
-        <v>919.14300000000003</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5.7446400000000002E-2</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94255359999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3">
-        <v>860.82299999999998</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5.3801399999999999E-2</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9461986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3">
-        <v>805.59100000000001</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5.0349400000000002E-2</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94965060000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3">
-        <v>762.76400000000001</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4.7672800000000001E-2</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95232720000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3">
-        <v>721.93499999999995</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4.5120899999999999E-2</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95487909999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3">
-        <v>688.77599999999995</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4.3048500000000003E-2</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95695149999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3">
-        <v>657.48800000000006</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4.1092999999999998E-2</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95890699999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3">
-        <v>633.6</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3.9600000000000003E-2</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96040000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3">
-        <v>600.20899999999995</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3.7513100000000001E-2</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96248690000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3">
-        <v>570.91899999999998</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3.5682400000000003E-2</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9643176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3">
-        <v>547.71</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3.4231900000000003E-2</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96576810000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3">
-        <v>540.62300000000005</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3.3788899999999997E-2</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96621109999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3">
-        <v>507.97800000000001</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3.1748600000000002E-2</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96825139999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3">
-        <v>482.173</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3.0135800000000001E-2</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96986419999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="3">
-        <v>463.85599999999999</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2.8990999999999999E-2</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97100900000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3">
-        <v>443.685</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2.7730299999999999E-2</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97226970000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="3">
-        <v>425.34399999999999</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2.6584E-2</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97341599999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="3">
-        <v>405.69</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2.5355599999999999E-2</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97464439999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3">
-        <v>389.14699999999999</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2.4321700000000002E-2</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9756783</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="3">
-        <v>374.35300000000001</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2.3397100000000001E-2</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97660290000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="3">
-        <v>360.702</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2.2543899999999999E-2</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97745610000000005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="3">
-        <v>347.72399999999999</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2.17328E-2</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9782672</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3">
-        <v>335.89600000000002</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2.0993499999999998E-2</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9790065</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="3">
-        <v>324.51100000000002</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2.0281899999999999E-2</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97971810000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="3">
-        <v>313.29000000000002</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1.95806E-2</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98041940000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="3">
-        <v>300.90800000000002</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1.8806799999999999E-2</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98119319999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="3">
-        <v>289.82600000000002</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1.81142E-2</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98188580000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="3">
-        <v>281.62700000000001</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1.7601700000000001E-2</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98239829999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="3">
-        <v>269.84100000000001</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1.6865000000000002E-2</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98313499999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="3">
-        <v>263.38200000000001</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1.6461400000000001E-2</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98353860000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="3">
-        <v>249.054</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1.5565900000000001E-2</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98443409999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="3">
-        <v>239.33799999999999</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1.4958600000000001E-2</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98504139999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="3">
-        <v>229.292</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1.4330799999999999E-2</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98566920000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="3">
-        <v>220.61199999999999</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1.37883E-2</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98621170000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="3">
-        <v>212.30799999999999</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1.3269299999999999E-2</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98673069999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3">
-        <v>45</v>
-      </c>
-      <c r="B50" s="3">
-        <v>204.86199999999999</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1.28039E-2</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98719610000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="3">
-        <v>197.39400000000001</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1.23371E-2</v>
-      </c>
-      <c r="D51" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98766290000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="3">
-        <v>189.67699999999999</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1.18548E-2</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98814519999999995</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="3">
-        <v>182.66499999999999</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1.1416600000000001E-2</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9885834</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="3">
-        <v>176.18</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1.10113E-2</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98898870000000005</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BFE694-5F11-844E-B8C3-B06174379F8E}">
-  <dimension ref="A1:D54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3669.61</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.22935</v>
-      </c>
-      <c r="D5" s="3">
-        <f>1-C5</f>
-        <v>0.77065000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2474.67</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.154667</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D54" si="0">1-C6</f>
-        <v>0.845333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2011.41</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.12571299999999999</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.87428700000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1740.75</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.108797</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.89120299999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1546.02</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9.6626500000000004E-2</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.90337350000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1421.49</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8.8843400000000003E-2</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.91115659999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1246.73</v>
-      </c>
-      <c r="C11" s="3">
-        <v>7.7920500000000004E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92207949999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1219.42</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7.6213400000000001E-2</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92378660000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1116.06</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.9753899999999994E-2</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93024609999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1127.17</v>
-      </c>
-      <c r="C14" s="3">
-        <v>7.04481E-2</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92955189999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1076.8800000000001</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6.7304699999999995E-2</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9326953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1013.61</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6.3350500000000004E-2</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93664950000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3">
-        <v>973.64800000000002</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6.0852999999999997E-2</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93914699999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3">
-        <v>931.31100000000004</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5.8207000000000002E-2</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94179299999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3">
-        <v>899.88199999999995</v>
-      </c>
-      <c r="C19" s="3">
-        <v>5.6242599999999997E-2</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94375739999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3">
-        <v>854.29899999999998</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5.3393700000000002E-2</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94660630000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3">
-        <v>865.49599999999998</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5.4093500000000003E-2</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94590649999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3">
-        <v>838.56700000000001</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5.2410400000000003E-2</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94758960000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3">
-        <v>830.17200000000003</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5.18857E-2</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94811429999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3">
-        <v>847.69299999999998</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5.2980800000000002E-2</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94701919999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3">
-        <v>827.98900000000003</v>
-      </c>
-      <c r="C25" s="3">
-        <v>5.1749299999999998E-2</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9482507</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3">
-        <v>727.48599999999999</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4.5467899999999999E-2</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95453209999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3">
-        <v>729.29499999999996</v>
-      </c>
-      <c r="C27" s="3">
-        <v>4.5580900000000001E-2</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95441909999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3">
-        <v>750.57</v>
-      </c>
-      <c r="C28" s="3">
-        <v>4.6910599999999997E-2</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95308939999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="3">
-        <v>665.34100000000001</v>
-      </c>
-      <c r="C29" s="3">
-        <v>4.1583799999999997E-2</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95841620000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3">
-        <v>737.61099999999999</v>
-      </c>
-      <c r="C30" s="3">
-        <v>4.6100700000000001E-2</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95389930000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="3">
-        <v>795.27499999999998</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4.9704699999999997E-2</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95029529999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="3">
-        <v>670.19299999999998</v>
-      </c>
-      <c r="C32" s="3">
-        <v>4.1887099999999997E-2</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95811290000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3">
-        <v>767.48</v>
-      </c>
-      <c r="C33" s="3">
-        <v>4.7967500000000003E-2</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95203249999999995</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="3">
-        <v>706.93</v>
-      </c>
-      <c r="C34" s="3">
-        <v>4.4183199999999999E-2</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95581680000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="3">
-        <v>607.20799999999997</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3.7950499999999998E-2</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9620495</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="3">
-        <v>626.22500000000002</v>
-      </c>
-      <c r="C36" s="3">
-        <v>3.9139100000000003E-2</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96086090000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3">
-        <v>692.95500000000004</v>
-      </c>
-      <c r="C37" s="3">
-        <v>4.33097E-2</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95669029999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="3">
-        <v>695.83600000000001</v>
-      </c>
-      <c r="C38" s="3">
-        <v>4.3489800000000002E-2</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95651019999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="3">
-        <v>717.08799999999997</v>
-      </c>
-      <c r="C39" s="3">
-        <v>4.4817999999999997E-2</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95518199999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="3">
-        <v>686.77599999999995</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4.2923500000000003E-2</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9570765</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="3">
-        <v>697.80100000000004</v>
-      </c>
-      <c r="C41" s="3">
-        <v>4.3612499999999998E-2</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95638749999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="3">
-        <v>705.12</v>
-      </c>
-      <c r="C42" s="3">
-        <v>4.4069999999999998E-2</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95592999999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="3">
-        <v>772.35</v>
-      </c>
-      <c r="C43" s="3">
-        <v>4.82719E-2</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95172809999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="3">
-        <v>726.34799999999996</v>
-      </c>
-      <c r="C44" s="3">
-        <v>4.5396800000000001E-2</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95460319999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="3">
-        <v>671.23400000000004</v>
-      </c>
-      <c r="C45" s="3">
-        <v>4.1952099999999999E-2</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95804789999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="3">
-        <v>704.88400000000001</v>
-      </c>
-      <c r="C46" s="3">
-        <v>4.4055200000000003E-2</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95594480000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="3">
-        <v>665.70799999999997</v>
-      </c>
-      <c r="C47" s="3">
-        <v>4.1606799999999999E-2</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95839319999999995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="3">
-        <v>650.524</v>
-      </c>
-      <c r="C48" s="3">
-        <v>4.0657699999999998E-2</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95934229999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="3">
-        <v>706.50400000000002</v>
-      </c>
-      <c r="C49" s="3">
-        <v>4.4156500000000001E-2</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95584349999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3">
-        <v>45</v>
-      </c>
-      <c r="B50" s="3">
-        <v>614.22500000000002</v>
-      </c>
-      <c r="C50" s="3">
-        <v>3.8389100000000002E-2</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96161090000000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="3">
-        <v>642.91300000000001</v>
-      </c>
-      <c r="C51" s="3">
-        <v>4.0182000000000002E-2</v>
-      </c>
-      <c r="D51" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95981799999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="3">
-        <v>538.31399999999996</v>
-      </c>
-      <c r="C52" s="3">
-        <v>3.3644599999999997E-2</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96635539999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="3">
-        <v>592.053</v>
-      </c>
-      <c r="C53" s="3">
-        <v>3.7003300000000003E-2</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96299670000000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="3">
-        <v>576.02300000000002</v>
-      </c>
-      <c r="C54" s="3">
-        <v>3.6001499999999999E-2</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96399849999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/ass2/Start_up_codes_LetterRecognition_v2/data.xlsx
+++ b/ass2/Start_up_codes_LetterRecognition_v2/data.xlsx
@@ -8,46 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tommy/Desktop/studyInMassey/159_740Studies in Intelligent Systems/ass2/Start_up_codes_LetterRecognition_v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEECB02-46DB-0941-9C27-1E8F924DE6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FE2C89-84CB-594E-84E2-30E1539077AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41480" yWindow="460" windowWidth="28040" windowHeight="21140" xr2:uid="{3AC73309-C196-3C48-9587-CCBA209445EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="model1" sheetId="2" r:id="rId1"/>
-    <sheet name="model2" sheetId="3" r:id="rId2"/>
-    <sheet name="model3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name=" confusion matrix" sheetId="5" r:id="rId1"/>
+    <sheet name="model1" sheetId="2" r:id="rId2"/>
+    <sheet name="model2" sheetId="3" r:id="rId3"/>
+    <sheet name="model3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">model1!$D$55</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">model1!$I$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">model1!$D$5</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">model1!$D$55</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">model1!$H$3:$I$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">model1!$H$4:$I$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">model1!$D$55</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">model1!$I$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">model1!$C$5</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">model1!$C$55</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">model1!$D$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">model1!$D$55</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">model1!$C$5</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">model1!$H$3:$I$3</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">model1!$H$4:$I$4</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">model1!$C$5</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">model1!$C$55</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">model1!$D$5</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">model1!$D$55</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">model1!$H$3:$I$3</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">model1!$H$4:$I$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">model1!$C$55</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">model1!$D$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">model1!$D$55</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">model1!$H$3:$I$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">model1!$H$4:$I$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">model1!$C$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">model1!$C$55</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Architecture</t>
   </si>
@@ -169,12 +140,20 @@
     <t xml:space="preserve">Test </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Actual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predicted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,6 +189,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -339,13 +326,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -377,6 +423,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -421,29 +488,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6893,22 +6991,2409 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEB0192-6299-6340-8965-B2F88FFBE1C4}">
+  <dimension ref="A1:AB28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="28" width="4.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="32" t="str">
+        <f>CHAR(COLUMN(A1)+64)</f>
+        <v>A</v>
+      </c>
+      <c r="D2" s="32" t="str">
+        <f t="shared" ref="D2:AB2" si="0">CHAR(COLUMN(B1)+64)</f>
+        <v>B</v>
+      </c>
+      <c r="E2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="F2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="G2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="H2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="I2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="J2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="K2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>I</v>
+      </c>
+      <c r="L2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>J</v>
+      </c>
+      <c r="M2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
+      </c>
+      <c r="N2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>L</v>
+      </c>
+      <c r="O2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="P2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="Q2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="R2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>P</v>
+      </c>
+      <c r="S2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>Q</v>
+      </c>
+      <c r="T2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>R</v>
+      </c>
+      <c r="U2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="V2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="W2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>U</v>
+      </c>
+      <c r="X2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="Y2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>W</v>
+      </c>
+      <c r="Z2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="AA2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="AB2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="32" t="str">
+        <f>CHAR(ROW(A65))</f>
+        <v>A</v>
+      </c>
+      <c r="C3" s="32">
+        <v>151</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32">
+        <v>0</v>
+      </c>
+      <c r="J3" s="32">
+        <v>0</v>
+      </c>
+      <c r="K3" s="32">
+        <v>0</v>
+      </c>
+      <c r="L3" s="32">
+        <v>0</v>
+      </c>
+      <c r="M3" s="32">
+        <v>0</v>
+      </c>
+      <c r="N3" s="32">
+        <v>1</v>
+      </c>
+      <c r="O3" s="32">
+        <v>0</v>
+      </c>
+      <c r="P3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>0</v>
+      </c>
+      <c r="R3" s="32">
+        <v>0</v>
+      </c>
+      <c r="S3" s="32">
+        <v>0</v>
+      </c>
+      <c r="T3" s="32">
+        <v>1</v>
+      </c>
+      <c r="U3" s="32">
+        <v>0</v>
+      </c>
+      <c r="V3" s="32">
+        <v>0</v>
+      </c>
+      <c r="W3" s="32">
+        <v>0</v>
+      </c>
+      <c r="X3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="32">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="33"/>
+      <c r="B4" s="32" t="str">
+        <f t="shared" ref="B3:Q28" si="1">CHAR(ROW(A66))</f>
+        <v>B</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0</v>
+      </c>
+      <c r="D4" s="32">
+        <v>132</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
+        <v>1</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32">
+        <v>0</v>
+      </c>
+      <c r="J4" s="32">
+        <v>0</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0</v>
+      </c>
+      <c r="L4" s="32">
+        <v>0</v>
+      </c>
+      <c r="M4" s="32">
+        <v>0</v>
+      </c>
+      <c r="N4" s="32">
+        <v>0</v>
+      </c>
+      <c r="O4" s="32">
+        <v>0</v>
+      </c>
+      <c r="P4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>0</v>
+      </c>
+      <c r="R4" s="32">
+        <v>0</v>
+      </c>
+      <c r="S4" s="32">
+        <v>0</v>
+      </c>
+      <c r="T4" s="32">
+        <v>2</v>
+      </c>
+      <c r="U4" s="32">
+        <v>1</v>
+      </c>
+      <c r="V4" s="32">
+        <v>0</v>
+      </c>
+      <c r="W4" s="32">
+        <v>0</v>
+      </c>
+      <c r="X4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="33"/>
+      <c r="B5" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0</v>
+      </c>
+      <c r="E5" s="32">
+        <v>140</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32">
+        <v>0</v>
+      </c>
+      <c r="I5" s="32">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
+        <v>0</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="32">
+        <v>0</v>
+      </c>
+      <c r="O5" s="32">
+        <v>0</v>
+      </c>
+      <c r="P5" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>1</v>
+      </c>
+      <c r="R5" s="32">
+        <v>0</v>
+      </c>
+      <c r="S5" s="32">
+        <v>0</v>
+      </c>
+      <c r="T5" s="32">
+        <v>0</v>
+      </c>
+      <c r="U5" s="32">
+        <v>0</v>
+      </c>
+      <c r="V5" s="32">
+        <v>0</v>
+      </c>
+      <c r="W5" s="32">
+        <v>0</v>
+      </c>
+      <c r="X5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="33"/>
+      <c r="B6" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0</v>
+      </c>
+      <c r="D6" s="32">
+        <v>3</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <v>161</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <v>3</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="32">
+        <v>0</v>
+      </c>
+      <c r="O6" s="32">
+        <v>0</v>
+      </c>
+      <c r="P6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>0</v>
+      </c>
+      <c r="R6" s="32">
+        <v>0</v>
+      </c>
+      <c r="S6" s="32">
+        <v>0</v>
+      </c>
+      <c r="T6" s="32">
+        <v>0</v>
+      </c>
+      <c r="U6" s="32">
+        <v>0</v>
+      </c>
+      <c r="V6" s="32">
+        <v>0</v>
+      </c>
+      <c r="W6" s="32">
+        <v>0</v>
+      </c>
+      <c r="X6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="33"/>
+      <c r="B7" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0</v>
+      </c>
+      <c r="E7" s="32">
+        <v>4</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <v>145</v>
+      </c>
+      <c r="H7" s="32">
+        <v>0</v>
+      </c>
+      <c r="I7" s="32">
+        <v>0</v>
+      </c>
+      <c r="J7" s="32">
+        <v>0</v>
+      </c>
+      <c r="K7" s="32">
+        <v>0</v>
+      </c>
+      <c r="L7" s="32">
+        <v>0</v>
+      </c>
+      <c r="M7" s="32">
+        <v>1</v>
+      </c>
+      <c r="N7" s="32">
+        <v>1</v>
+      </c>
+      <c r="O7" s="32">
+        <v>0</v>
+      </c>
+      <c r="P7" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>0</v>
+      </c>
+      <c r="R7" s="32">
+        <v>0</v>
+      </c>
+      <c r="S7" s="32">
+        <v>0</v>
+      </c>
+      <c r="T7" s="32">
+        <v>0</v>
+      </c>
+      <c r="U7" s="32">
+        <v>0</v>
+      </c>
+      <c r="V7" s="32">
+        <v>0</v>
+      </c>
+      <c r="W7" s="32">
+        <v>0</v>
+      </c>
+      <c r="X7" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="33"/>
+      <c r="B8" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>2</v>
+      </c>
+      <c r="H8" s="32">
+        <v>149</v>
+      </c>
+      <c r="I8" s="32">
+        <v>0</v>
+      </c>
+      <c r="J8" s="32">
+        <v>0</v>
+      </c>
+      <c r="K8" s="32">
+        <v>0</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="32">
+        <v>0</v>
+      </c>
+      <c r="O8" s="32">
+        <v>0</v>
+      </c>
+      <c r="P8" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>0</v>
+      </c>
+      <c r="R8" s="32">
+        <v>1</v>
+      </c>
+      <c r="S8" s="32">
+        <v>0</v>
+      </c>
+      <c r="T8" s="32">
+        <v>0</v>
+      </c>
+      <c r="U8" s="32">
+        <v>0</v>
+      </c>
+      <c r="V8" s="32">
+        <v>0</v>
+      </c>
+      <c r="W8" s="32">
+        <v>0</v>
+      </c>
+      <c r="X8" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="33"/>
+      <c r="B9" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>G</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32">
+        <v>6</v>
+      </c>
+      <c r="F9" s="32">
+        <v>2</v>
+      </c>
+      <c r="G9" s="32">
+        <v>2</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
+        <v>145</v>
+      </c>
+      <c r="J9" s="32">
+        <v>1</v>
+      </c>
+      <c r="K9" s="32">
+        <v>0</v>
+      </c>
+      <c r="L9" s="32">
+        <v>0</v>
+      </c>
+      <c r="M9" s="32">
+        <v>3</v>
+      </c>
+      <c r="N9" s="32">
+        <v>0</v>
+      </c>
+      <c r="O9" s="32">
+        <v>0</v>
+      </c>
+      <c r="P9" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>0</v>
+      </c>
+      <c r="R9" s="32">
+        <v>0</v>
+      </c>
+      <c r="S9" s="32">
+        <v>1</v>
+      </c>
+      <c r="T9" s="32">
+        <v>2</v>
+      </c>
+      <c r="U9" s="32">
+        <v>0</v>
+      </c>
+      <c r="V9" s="32">
+        <v>0</v>
+      </c>
+      <c r="W9" s="32">
+        <v>0</v>
+      </c>
+      <c r="X9" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="33"/>
+      <c r="B10" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0</v>
+      </c>
+      <c r="F10" s="32">
+        <v>1</v>
+      </c>
+      <c r="G10" s="32">
+        <v>1</v>
+      </c>
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="32">
+        <v>0</v>
+      </c>
+      <c r="J10" s="32">
+        <v>130</v>
+      </c>
+      <c r="K10" s="32">
+        <v>0</v>
+      </c>
+      <c r="L10" s="32">
+        <v>0</v>
+      </c>
+      <c r="M10" s="32">
+        <v>5</v>
+      </c>
+      <c r="N10" s="32">
+        <v>0</v>
+      </c>
+      <c r="O10" s="32">
+        <v>1</v>
+      </c>
+      <c r="P10" s="32">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>0</v>
+      </c>
+      <c r="R10" s="32">
+        <v>0</v>
+      </c>
+      <c r="S10" s="32">
+        <v>1</v>
+      </c>
+      <c r="T10" s="32">
+        <v>6</v>
+      </c>
+      <c r="U10" s="32">
+        <v>0</v>
+      </c>
+      <c r="V10" s="32">
+        <v>0</v>
+      </c>
+      <c r="W10" s="32">
+        <v>1</v>
+      </c>
+      <c r="X10" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="33"/>
+      <c r="B11" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>I</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32">
+        <v>0</v>
+      </c>
+      <c r="I11" s="32">
+        <v>0</v>
+      </c>
+      <c r="J11" s="32">
+        <v>0</v>
+      </c>
+      <c r="K11" s="32">
+        <v>158</v>
+      </c>
+      <c r="L11" s="32">
+        <v>5</v>
+      </c>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="32">
+        <v>0</v>
+      </c>
+      <c r="O11" s="32">
+        <v>0</v>
+      </c>
+      <c r="P11" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>0</v>
+      </c>
+      <c r="R11" s="32">
+        <v>0</v>
+      </c>
+      <c r="S11" s="32">
+        <v>0</v>
+      </c>
+      <c r="T11" s="32">
+        <v>0</v>
+      </c>
+      <c r="U11" s="32">
+        <v>1</v>
+      </c>
+      <c r="V11" s="32">
+        <v>0</v>
+      </c>
+      <c r="W11" s="32">
+        <v>0</v>
+      </c>
+      <c r="X11" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="33"/>
+      <c r="B12" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>J</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0</v>
+      </c>
+      <c r="G12" s="32">
+        <v>1</v>
+      </c>
+      <c r="H12" s="32">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32">
+        <v>0</v>
+      </c>
+      <c r="J12" s="32">
+        <v>0</v>
+      </c>
+      <c r="K12" s="32">
+        <v>5</v>
+      </c>
+      <c r="L12" s="32">
+        <v>141</v>
+      </c>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="32">
+        <v>0</v>
+      </c>
+      <c r="O12" s="32">
+        <v>0</v>
+      </c>
+      <c r="P12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>1</v>
+      </c>
+      <c r="R12" s="32">
+        <v>0</v>
+      </c>
+      <c r="S12" s="32">
+        <v>0</v>
+      </c>
+      <c r="T12" s="32">
+        <v>0</v>
+      </c>
+      <c r="U12" s="32">
+        <v>0</v>
+      </c>
+      <c r="V12" s="32">
+        <v>0</v>
+      </c>
+      <c r="W12" s="32">
+        <v>0</v>
+      </c>
+      <c r="X12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="33"/>
+      <c r="B13" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>K</v>
+      </c>
+      <c r="C13" s="32">
+        <v>0</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32">
+        <v>0</v>
+      </c>
+      <c r="I13" s="32">
+        <v>0</v>
+      </c>
+      <c r="J13" s="32">
+        <v>0</v>
+      </c>
+      <c r="K13" s="32">
+        <v>0</v>
+      </c>
+      <c r="L13" s="32">
+        <v>0</v>
+      </c>
+      <c r="M13" s="32">
+        <v>143</v>
+      </c>
+      <c r="N13" s="32">
+        <v>0</v>
+      </c>
+      <c r="O13" s="32">
+        <v>0</v>
+      </c>
+      <c r="P13" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>0</v>
+      </c>
+      <c r="R13" s="32">
+        <v>0</v>
+      </c>
+      <c r="S13" s="32">
+        <v>0</v>
+      </c>
+      <c r="T13" s="32">
+        <v>2</v>
+      </c>
+      <c r="U13" s="32">
+        <v>0</v>
+      </c>
+      <c r="V13" s="32">
+        <v>0</v>
+      </c>
+      <c r="W13" s="32">
+        <v>0</v>
+      </c>
+      <c r="X13" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="33"/>
+      <c r="B14" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>L</v>
+      </c>
+      <c r="C14" s="32">
+        <v>0</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32">
+        <v>0</v>
+      </c>
+      <c r="I14" s="32">
+        <v>0</v>
+      </c>
+      <c r="J14" s="32">
+        <v>0</v>
+      </c>
+      <c r="K14" s="32">
+        <v>0</v>
+      </c>
+      <c r="L14" s="32">
+        <v>0</v>
+      </c>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="32">
+        <v>152</v>
+      </c>
+      <c r="O14" s="32">
+        <v>0</v>
+      </c>
+      <c r="P14" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>0</v>
+      </c>
+      <c r="R14" s="32">
+        <v>0</v>
+      </c>
+      <c r="S14" s="32">
+        <v>1</v>
+      </c>
+      <c r="T14" s="32">
+        <v>0</v>
+      </c>
+      <c r="U14" s="32">
+        <v>0</v>
+      </c>
+      <c r="V14" s="32">
+        <v>0</v>
+      </c>
+      <c r="W14" s="32">
+        <v>0</v>
+      </c>
+      <c r="X14" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="32">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="33"/>
+      <c r="B15" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>M</v>
+      </c>
+      <c r="C15" s="32">
+        <v>0</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
+        <v>0</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0</v>
+      </c>
+      <c r="J15" s="32">
+        <v>0</v>
+      </c>
+      <c r="K15" s="32">
+        <v>0</v>
+      </c>
+      <c r="L15" s="32">
+        <v>0</v>
+      </c>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="32">
+        <v>0</v>
+      </c>
+      <c r="O15" s="32">
+        <v>143</v>
+      </c>
+      <c r="P15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>0</v>
+      </c>
+      <c r="R15" s="32">
+        <v>0</v>
+      </c>
+      <c r="S15" s="32">
+        <v>0</v>
+      </c>
+      <c r="T15" s="32">
+        <v>0</v>
+      </c>
+      <c r="U15" s="32">
+        <v>0</v>
+      </c>
+      <c r="V15" s="32">
+        <v>0</v>
+      </c>
+      <c r="W15" s="32">
+        <v>0</v>
+      </c>
+      <c r="X15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="33"/>
+      <c r="B16" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="C16" s="32">
+        <v>0</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32">
+        <v>1</v>
+      </c>
+      <c r="G16" s="32">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32">
+        <v>0</v>
+      </c>
+      <c r="I16" s="32">
+        <v>0</v>
+      </c>
+      <c r="J16" s="32">
+        <v>1</v>
+      </c>
+      <c r="K16" s="32">
+        <v>1</v>
+      </c>
+      <c r="L16" s="32">
+        <v>0</v>
+      </c>
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="32">
+        <v>0</v>
+      </c>
+      <c r="O16" s="32">
+        <v>0</v>
+      </c>
+      <c r="P16" s="32">
+        <v>160</v>
+      </c>
+      <c r="Q16" s="32">
+        <v>0</v>
+      </c>
+      <c r="R16" s="32">
+        <v>0</v>
+      </c>
+      <c r="S16" s="32">
+        <v>0</v>
+      </c>
+      <c r="T16" s="32">
+        <v>3</v>
+      </c>
+      <c r="U16" s="32">
+        <v>0</v>
+      </c>
+      <c r="V16" s="32">
+        <v>0</v>
+      </c>
+      <c r="W16" s="32">
+        <v>0</v>
+      </c>
+      <c r="X16" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="33"/>
+      <c r="B17" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>O</v>
+      </c>
+      <c r="C17" s="32">
+        <v>1</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>2</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
+        <v>0</v>
+      </c>
+      <c r="I17" s="32">
+        <v>0</v>
+      </c>
+      <c r="J17" s="32">
+        <v>0</v>
+      </c>
+      <c r="K17" s="32">
+        <v>0</v>
+      </c>
+      <c r="L17" s="32">
+        <v>0</v>
+      </c>
+      <c r="M17" s="32">
+        <v>1</v>
+      </c>
+      <c r="N17" s="32">
+        <v>0</v>
+      </c>
+      <c r="O17" s="32">
+        <v>0</v>
+      </c>
+      <c r="P17" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>131</v>
+      </c>
+      <c r="R17" s="32">
+        <v>0</v>
+      </c>
+      <c r="S17" s="32">
+        <v>3</v>
+      </c>
+      <c r="T17" s="32">
+        <v>0</v>
+      </c>
+      <c r="U17" s="32">
+        <v>0</v>
+      </c>
+      <c r="V17" s="32">
+        <v>0</v>
+      </c>
+      <c r="W17" s="32">
+        <v>0</v>
+      </c>
+      <c r="X17" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="33"/>
+      <c r="B18" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>P</v>
+      </c>
+      <c r="C18" s="32">
+        <v>0</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32">
+        <v>3</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32">
+        <v>2</v>
+      </c>
+      <c r="I18" s="32">
+        <v>0</v>
+      </c>
+      <c r="J18" s="32">
+        <v>0</v>
+      </c>
+      <c r="K18" s="32">
+        <v>0</v>
+      </c>
+      <c r="L18" s="32">
+        <v>0</v>
+      </c>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="32">
+        <v>0</v>
+      </c>
+      <c r="O18" s="32">
+        <v>0</v>
+      </c>
+      <c r="P18" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>1</v>
+      </c>
+      <c r="R18" s="32">
+        <v>157</v>
+      </c>
+      <c r="S18" s="32">
+        <v>3</v>
+      </c>
+      <c r="T18" s="32">
+        <v>0</v>
+      </c>
+      <c r="U18" s="32">
+        <v>1</v>
+      </c>
+      <c r="V18" s="32">
+        <v>0</v>
+      </c>
+      <c r="W18" s="32">
+        <v>0</v>
+      </c>
+      <c r="X18" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="33"/>
+      <c r="B19" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Q</v>
+      </c>
+      <c r="C19" s="32">
+        <v>0</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0</v>
+      </c>
+      <c r="F19" s="32">
+        <v>1</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0</v>
+      </c>
+      <c r="H19" s="32">
+        <v>0</v>
+      </c>
+      <c r="I19" s="32">
+        <v>0</v>
+      </c>
+      <c r="J19" s="32">
+        <v>0</v>
+      </c>
+      <c r="K19" s="32">
+        <v>0</v>
+      </c>
+      <c r="L19" s="32">
+        <v>0</v>
+      </c>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="32">
+        <v>0</v>
+      </c>
+      <c r="O19" s="32">
+        <v>0</v>
+      </c>
+      <c r="P19" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="32">
+        <v>0</v>
+      </c>
+      <c r="R19" s="32">
+        <v>0</v>
+      </c>
+      <c r="S19" s="32">
+        <v>167</v>
+      </c>
+      <c r="T19" s="32">
+        <v>0</v>
+      </c>
+      <c r="U19" s="32">
+        <v>0</v>
+      </c>
+      <c r="V19" s="32">
+        <v>0</v>
+      </c>
+      <c r="W19" s="32">
+        <v>0</v>
+      </c>
+      <c r="X19" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="33"/>
+      <c r="B20" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>R</v>
+      </c>
+      <c r="C20" s="32">
+        <v>0</v>
+      </c>
+      <c r="D20" s="32">
+        <v>3</v>
+      </c>
+      <c r="E20" s="32">
+        <v>1</v>
+      </c>
+      <c r="F20" s="32">
+        <v>1</v>
+      </c>
+      <c r="G20" s="32">
+        <v>1</v>
+      </c>
+      <c r="H20" s="32">
+        <v>0</v>
+      </c>
+      <c r="I20" s="32">
+        <v>0</v>
+      </c>
+      <c r="J20" s="32">
+        <v>2</v>
+      </c>
+      <c r="K20" s="32">
+        <v>0</v>
+      </c>
+      <c r="L20" s="32">
+        <v>0</v>
+      </c>
+      <c r="M20" s="32">
+        <v>3</v>
+      </c>
+      <c r="N20" s="32">
+        <v>0</v>
+      </c>
+      <c r="O20" s="32">
+        <v>0</v>
+      </c>
+      <c r="P20" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>0</v>
+      </c>
+      <c r="R20" s="32">
+        <v>0</v>
+      </c>
+      <c r="S20" s="32">
+        <v>0</v>
+      </c>
+      <c r="T20" s="32">
+        <v>149</v>
+      </c>
+      <c r="U20" s="32">
+        <v>0</v>
+      </c>
+      <c r="V20" s="32">
+        <v>1</v>
+      </c>
+      <c r="W20" s="32">
+        <v>0</v>
+      </c>
+      <c r="X20" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="33"/>
+      <c r="B21" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>S</v>
+      </c>
+      <c r="C21" s="32">
+        <v>0</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0</v>
+      </c>
+      <c r="G21" s="32">
+        <v>0</v>
+      </c>
+      <c r="H21" s="32">
+        <v>0</v>
+      </c>
+      <c r="I21" s="32">
+        <v>0</v>
+      </c>
+      <c r="J21" s="32">
+        <v>0</v>
+      </c>
+      <c r="K21" s="32">
+        <v>0</v>
+      </c>
+      <c r="L21" s="32">
+        <v>0</v>
+      </c>
+      <c r="M21" s="32">
+        <v>0</v>
+      </c>
+      <c r="N21" s="32">
+        <v>0</v>
+      </c>
+      <c r="O21" s="32">
+        <v>0</v>
+      </c>
+      <c r="P21" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="32">
+        <v>0</v>
+      </c>
+      <c r="R21" s="32">
+        <v>0</v>
+      </c>
+      <c r="S21" s="32">
+        <v>1</v>
+      </c>
+      <c r="T21" s="32">
+        <v>0</v>
+      </c>
+      <c r="U21" s="32">
+        <v>160</v>
+      </c>
+      <c r="V21" s="32">
+        <v>0</v>
+      </c>
+      <c r="W21" s="32">
+        <v>0</v>
+      </c>
+      <c r="X21" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="33"/>
+      <c r="B22" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>T</v>
+      </c>
+      <c r="C22" s="32">
+        <v>0</v>
+      </c>
+      <c r="D22" s="32">
+        <v>0</v>
+      </c>
+      <c r="E22" s="32">
+        <v>0</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0</v>
+      </c>
+      <c r="G22" s="32">
+        <v>0</v>
+      </c>
+      <c r="H22" s="32">
+        <v>0</v>
+      </c>
+      <c r="I22" s="32">
+        <v>0</v>
+      </c>
+      <c r="J22" s="32">
+        <v>0</v>
+      </c>
+      <c r="K22" s="32">
+        <v>0</v>
+      </c>
+      <c r="L22" s="32">
+        <v>0</v>
+      </c>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="N22" s="32">
+        <v>0</v>
+      </c>
+      <c r="O22" s="32">
+        <v>0</v>
+      </c>
+      <c r="P22" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="32">
+        <v>0</v>
+      </c>
+      <c r="R22" s="32">
+        <v>0</v>
+      </c>
+      <c r="S22" s="32">
+        <v>0</v>
+      </c>
+      <c r="T22" s="32">
+        <v>0</v>
+      </c>
+      <c r="U22" s="32">
+        <v>0</v>
+      </c>
+      <c r="V22" s="32">
+        <v>151</v>
+      </c>
+      <c r="W22" s="32">
+        <v>0</v>
+      </c>
+      <c r="X22" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="33"/>
+      <c r="B23" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>U</v>
+      </c>
+      <c r="C23" s="32">
+        <v>0</v>
+      </c>
+      <c r="D23" s="32">
+        <v>0</v>
+      </c>
+      <c r="E23" s="32">
+        <v>0</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0</v>
+      </c>
+      <c r="G23" s="32">
+        <v>0</v>
+      </c>
+      <c r="H23" s="32">
+        <v>0</v>
+      </c>
+      <c r="I23" s="32">
+        <v>0</v>
+      </c>
+      <c r="J23" s="32">
+        <v>0</v>
+      </c>
+      <c r="K23" s="32">
+        <v>0</v>
+      </c>
+      <c r="L23" s="32">
+        <v>0</v>
+      </c>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="32">
+        <v>0</v>
+      </c>
+      <c r="O23" s="32">
+        <v>0</v>
+      </c>
+      <c r="P23" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="32">
+        <v>1</v>
+      </c>
+      <c r="R23" s="32">
+        <v>0</v>
+      </c>
+      <c r="S23" s="32">
+        <v>0</v>
+      </c>
+      <c r="T23" s="32">
+        <v>0</v>
+      </c>
+      <c r="U23" s="32">
+        <v>0</v>
+      </c>
+      <c r="V23" s="32">
+        <v>0</v>
+      </c>
+      <c r="W23" s="32">
+        <v>167</v>
+      </c>
+      <c r="X23" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="33"/>
+      <c r="B24" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>V</v>
+      </c>
+      <c r="C24" s="32">
+        <v>0</v>
+      </c>
+      <c r="D24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1</v>
+      </c>
+      <c r="I24" s="32">
+        <v>0</v>
+      </c>
+      <c r="J24" s="32">
+        <v>0</v>
+      </c>
+      <c r="K24" s="32">
+        <v>0</v>
+      </c>
+      <c r="L24" s="32">
+        <v>0</v>
+      </c>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="32">
+        <v>0</v>
+      </c>
+      <c r="O24" s="32">
+        <v>0</v>
+      </c>
+      <c r="P24" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>1</v>
+      </c>
+      <c r="R24" s="32">
+        <v>0</v>
+      </c>
+      <c r="S24" s="32">
+        <v>0</v>
+      </c>
+      <c r="T24" s="32">
+        <v>1</v>
+      </c>
+      <c r="U24" s="32">
+        <v>0</v>
+      </c>
+      <c r="V24" s="32">
+        <v>0</v>
+      </c>
+      <c r="W24" s="32">
+        <v>1</v>
+      </c>
+      <c r="X24" s="32">
+        <v>131</v>
+      </c>
+      <c r="Y24" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="33"/>
+      <c r="B25" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>W</v>
+      </c>
+      <c r="C25" s="32">
+        <v>0</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0</v>
+      </c>
+      <c r="E25" s="32">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0</v>
+      </c>
+      <c r="G25" s="32">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32">
+        <v>0</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0</v>
+      </c>
+      <c r="J25" s="32">
+        <v>0</v>
+      </c>
+      <c r="K25" s="32">
+        <v>0</v>
+      </c>
+      <c r="L25" s="32">
+        <v>0</v>
+      </c>
+      <c r="M25" s="32">
+        <v>1</v>
+      </c>
+      <c r="N25" s="32">
+        <v>0</v>
+      </c>
+      <c r="O25" s="32">
+        <v>1</v>
+      </c>
+      <c r="P25" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="32">
+        <v>0</v>
+      </c>
+      <c r="R25" s="32">
+        <v>0</v>
+      </c>
+      <c r="S25" s="32">
+        <v>1</v>
+      </c>
+      <c r="T25" s="32">
+        <v>0</v>
+      </c>
+      <c r="U25" s="32">
+        <v>0</v>
+      </c>
+      <c r="V25" s="32">
+        <v>0</v>
+      </c>
+      <c r="W25" s="32">
+        <v>0</v>
+      </c>
+      <c r="X25" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="32">
+        <v>135</v>
+      </c>
+      <c r="Z25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="33"/>
+      <c r="B26" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C26" s="32">
+        <v>0</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32">
+        <v>1</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0</v>
+      </c>
+      <c r="J26" s="32">
+        <v>0</v>
+      </c>
+      <c r="K26" s="32">
+        <v>0</v>
+      </c>
+      <c r="L26" s="32">
+        <v>1</v>
+      </c>
+      <c r="M26" s="32">
+        <v>1</v>
+      </c>
+      <c r="N26" s="32">
+        <v>0</v>
+      </c>
+      <c r="O26" s="32">
+        <v>0</v>
+      </c>
+      <c r="P26" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="32">
+        <v>0</v>
+      </c>
+      <c r="R26" s="32">
+        <v>0</v>
+      </c>
+      <c r="S26" s="32">
+        <v>0</v>
+      </c>
+      <c r="T26" s="32">
+        <v>0</v>
+      </c>
+      <c r="U26" s="32">
+        <v>0</v>
+      </c>
+      <c r="V26" s="32">
+        <v>0</v>
+      </c>
+      <c r="W26" s="32">
+        <v>0</v>
+      </c>
+      <c r="X26" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="32">
+        <v>156</v>
+      </c>
+      <c r="AA26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="33"/>
+      <c r="B27" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Y</v>
+      </c>
+      <c r="C27" s="32">
+        <v>0</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0</v>
+      </c>
+      <c r="H27" s="32">
+        <v>0</v>
+      </c>
+      <c r="I27" s="32">
+        <v>0</v>
+      </c>
+      <c r="J27" s="32">
+        <v>0</v>
+      </c>
+      <c r="K27" s="32">
+        <v>0</v>
+      </c>
+      <c r="L27" s="32">
+        <v>1</v>
+      </c>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="32">
+        <v>0</v>
+      </c>
+      <c r="O27" s="32">
+        <v>0</v>
+      </c>
+      <c r="P27" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="32">
+        <v>0</v>
+      </c>
+      <c r="R27" s="32">
+        <v>0</v>
+      </c>
+      <c r="S27" s="32">
+        <v>0</v>
+      </c>
+      <c r="T27" s="32">
+        <v>0</v>
+      </c>
+      <c r="U27" s="32">
+        <v>0</v>
+      </c>
+      <c r="V27" s="32">
+        <v>0</v>
+      </c>
+      <c r="W27" s="32">
+        <v>1</v>
+      </c>
+      <c r="X27" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="32">
+        <v>142</v>
+      </c>
+      <c r="AB27" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="33"/>
+      <c r="B28" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Z</v>
+      </c>
+      <c r="C28" s="32">
+        <v>0</v>
+      </c>
+      <c r="D28" s="32">
+        <v>0</v>
+      </c>
+      <c r="E28" s="32">
+        <v>0</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0</v>
+      </c>
+      <c r="G28" s="32">
+        <v>0</v>
+      </c>
+      <c r="H28" s="32">
+        <v>0</v>
+      </c>
+      <c r="I28" s="32">
+        <v>0</v>
+      </c>
+      <c r="J28" s="32">
+        <v>0</v>
+      </c>
+      <c r="K28" s="32">
+        <v>0</v>
+      </c>
+      <c r="L28" s="32">
+        <v>0</v>
+      </c>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="32">
+        <v>0</v>
+      </c>
+      <c r="O28" s="32">
+        <v>0</v>
+      </c>
+      <c r="P28" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="32">
+        <v>0</v>
+      </c>
+      <c r="R28" s="32">
+        <v>0</v>
+      </c>
+      <c r="S28" s="32">
+        <v>0</v>
+      </c>
+      <c r="T28" s="32">
+        <v>0</v>
+      </c>
+      <c r="U28" s="32">
+        <v>0</v>
+      </c>
+      <c r="V28" s="32">
+        <v>0</v>
+      </c>
+      <c r="W28" s="32">
+        <v>0</v>
+      </c>
+      <c r="X28" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="32">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="C1:AB1"/>
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3:AB28">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4BCBFB-E560-4F4A-93B3-E957519DF392}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
@@ -7730,852 +10215,6 @@
       <c r="D55" s="3">
         <f t="shared" si="0"/>
         <v>0.96844390000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EA46E6-E544-D446-A120-731A7F7A189C}">
-  <dimension ref="A1:J55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D55" activeCellId="1" sqref="J7 D55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>50</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3977.85</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.248615</v>
-      </c>
-      <c r="D6" s="3">
-        <f>1-C6</f>
-        <v>0.75138499999999997</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2529.9699999999998</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.15812300000000001</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" ref="D7:D55" si="0">1-C7</f>
-        <v>0.84187699999999999</v>
-      </c>
-      <c r="H7">
-        <v>105.90600000000001</v>
-      </c>
-      <c r="I7">
-        <v>2.64765E-2</v>
-      </c>
-      <c r="J7">
-        <f>1-I7</f>
-        <v>0.97352349999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2007.63</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.12547700000000001</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.87452299999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1699.81</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.106238</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.89376199999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1498.04</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9.3627500000000002E-2</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.90637250000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1350.31</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8.4394499999999997E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.91560549999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1228.06</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7.6754000000000003E-2</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92324600000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1129.81</v>
-      </c>
-      <c r="C13" s="3">
-        <v>7.0613099999999998E-2</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92938690000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1044.3499999999999</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6.52721E-2</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93472789999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3">
-        <v>977.33299999999997</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6.10833E-2</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93891670000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3">
-        <v>919.14300000000003</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5.7446400000000002E-2</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94255359999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3">
-        <v>860.82299999999998</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5.3801399999999999E-2</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9461986</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3">
-        <v>805.59100000000001</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5.0349400000000002E-2</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94965060000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3">
-        <v>762.76400000000001</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4.7672800000000001E-2</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95232720000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3">
-        <v>721.93499999999995</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4.5120899999999999E-2</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95487909999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3">
-        <v>688.77599999999995</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4.3048500000000003E-2</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95695149999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3">
-        <v>657.48800000000006</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4.1092999999999998E-2</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.95890699999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>17</v>
-      </c>
-      <c r="B23" s="3">
-        <v>633.6</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3.9600000000000003E-2</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96040000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>18</v>
-      </c>
-      <c r="B24" s="3">
-        <v>600.20899999999995</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3.7513100000000001E-2</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96248690000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>19</v>
-      </c>
-      <c r="B25" s="3">
-        <v>570.91899999999998</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3.5682400000000003E-2</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9643176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3">
-        <v>547.71</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3.4231900000000003E-2</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96576810000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3">
-        <v>540.62300000000005</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3.3788899999999997E-2</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96621109999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3">
-        <v>507.97800000000001</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3.1748600000000002E-2</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96825139999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3">
-        <v>23</v>
-      </c>
-      <c r="B29" s="3">
-        <v>482.173</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3.0135800000000001E-2</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96986419999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>24</v>
-      </c>
-      <c r="B30" s="3">
-        <v>463.85599999999999</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2.8990999999999999E-2</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97100900000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>25</v>
-      </c>
-      <c r="B31" s="3">
-        <v>443.685</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2.7730299999999999E-2</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97226970000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>26</v>
-      </c>
-      <c r="B32" s="3">
-        <v>425.34399999999999</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2.6584E-2</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97341599999999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>27</v>
-      </c>
-      <c r="B33" s="3">
-        <v>405.69</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2.5355599999999999E-2</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97464439999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>28</v>
-      </c>
-      <c r="B34" s="3">
-        <v>389.14699999999999</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2.4321700000000002E-2</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9756783</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <v>29</v>
-      </c>
-      <c r="B35" s="3">
-        <v>374.35300000000001</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2.3397100000000001E-2</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97660290000000005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <v>30</v>
-      </c>
-      <c r="B36" s="3">
-        <v>360.702</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2.2543899999999999E-2</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97745610000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3">
-        <v>31</v>
-      </c>
-      <c r="B37" s="3">
-        <v>347.72399999999999</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2.17328E-2</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9782672</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3">
-        <v>32</v>
-      </c>
-      <c r="B38" s="3">
-        <v>335.89600000000002</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2.0993499999999998E-2</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9790065</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <v>33</v>
-      </c>
-      <c r="B39" s="3">
-        <v>324.51100000000002</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2.0281899999999999E-2</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97971810000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>34</v>
-      </c>
-      <c r="B40" s="3">
-        <v>313.29000000000002</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1.95806E-2</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98041940000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <v>35</v>
-      </c>
-      <c r="B41" s="3">
-        <v>300.90800000000002</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1.8806799999999999E-2</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98119319999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>36</v>
-      </c>
-      <c r="B42" s="3">
-        <v>289.82600000000002</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1.81142E-2</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98188580000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>37</v>
-      </c>
-      <c r="B43" s="3">
-        <v>281.62700000000001</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1.7601700000000001E-2</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98239829999999995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>38</v>
-      </c>
-      <c r="B44" s="3">
-        <v>269.84100000000001</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1.6865000000000002E-2</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98313499999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <v>39</v>
-      </c>
-      <c r="B45" s="3">
-        <v>263.38200000000001</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1.6461400000000001E-2</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98353860000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3">
-        <v>40</v>
-      </c>
-      <c r="B46" s="3">
-        <v>249.054</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1.5565900000000001E-2</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98443409999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3">
-        <v>41</v>
-      </c>
-      <c r="B47" s="3">
-        <v>239.33799999999999</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1.4958600000000001E-2</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98504139999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="3">
-        <v>42</v>
-      </c>
-      <c r="B48" s="3">
-        <v>229.292</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1.4330799999999999E-2</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98566920000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="3">
-        <v>43</v>
-      </c>
-      <c r="B49" s="3">
-        <v>220.61199999999999</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1.37883E-2</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98621170000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3">
-        <v>44</v>
-      </c>
-      <c r="B50" s="3">
-        <v>212.30799999999999</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1.3269299999999999E-2</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98673069999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="3">
-        <v>45</v>
-      </c>
-      <c r="B51" s="3">
-        <v>204.86199999999999</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1.28039E-2</v>
-      </c>
-      <c r="D51" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98719610000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="3">
-        <v>46</v>
-      </c>
-      <c r="B52" s="3">
-        <v>197.39400000000001</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1.23371E-2</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98766290000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="3">
-        <v>47</v>
-      </c>
-      <c r="B53" s="3">
-        <v>189.67699999999999</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1.18548E-2</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98814519999999995</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3">
-        <v>48</v>
-      </c>
-      <c r="B54" s="3">
-        <v>182.66499999999999</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1.1416600000000001E-2</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9885834</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="3">
-        <v>49</v>
-      </c>
-      <c r="B55" s="3">
-        <v>176.18</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1.10113E-2</v>
-      </c>
-      <c r="D55" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98898870000000005</v>
       </c>
     </row>
   </sheetData>
@@ -8589,809 +10228,839 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BFE694-5F11-844E-B8C3-B06174379F8E}">
-  <dimension ref="A1:D54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EA46E6-E544-D446-A120-731A7F7A189C}">
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D55" activeCellId="1" sqref="J7 D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C4" s="3">
         <v>50</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3669.61</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.22935</v>
-      </c>
-      <c r="D5" s="3">
-        <f>1-C5</f>
-        <v>0.77065000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="H5" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3977.85</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.248615</v>
+      </c>
+      <c r="D6" s="3">
+        <f>1-C6</f>
+        <v>0.75138499999999997</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>2474.67</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.154667</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D54" si="0">1-C6</f>
-        <v>0.845333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
+      <c r="B7" s="3">
+        <v>2529.9699999999998</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.15812300000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:D55" si="0">1-C7</f>
+        <v>0.84187699999999999</v>
+      </c>
+      <c r="H7">
+        <v>105.90600000000001</v>
+      </c>
+      <c r="I7">
+        <v>2.64765E-2</v>
+      </c>
+      <c r="J7">
+        <f>1-I7</f>
+        <v>0.97352349999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
-        <v>2011.41</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.12571299999999999</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.87428700000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
+      <c r="B8" s="3">
+        <v>2007.63</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.12547700000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.87452299999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
-        <v>1740.75</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.108797</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.89120299999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3">
+      <c r="B9" s="3">
+        <v>1699.81</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.106238</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89376199999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="3">
-        <v>1546.02</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9.6626500000000004E-2</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.90337350000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="B10" s="3">
+        <v>1498.04</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.3627500000000002E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90637250000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="3">
-        <v>1421.49</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8.8843400000000003E-2</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.91115659999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3">
+      <c r="B11" s="3">
+        <v>1350.31</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.4394499999999997E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91560549999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="3">
-        <v>1246.73</v>
-      </c>
-      <c r="C11" s="3">
-        <v>7.7920500000000004E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92207949999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3">
+      <c r="B12" s="3">
+        <v>1228.06</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7.6754000000000003E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92324600000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="3">
-        <v>1219.42</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7.6213400000000001E-2</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92378660000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+      <c r="B13" s="3">
+        <v>1129.81</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.0613099999999998E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92938690000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="3">
-        <v>1116.06</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.9753899999999994E-2</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93024609999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3">
+      <c r="B14" s="3">
+        <v>1044.3499999999999</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6.52721E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93472789999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
-        <v>1127.17</v>
-      </c>
-      <c r="C14" s="3">
-        <v>7.04481E-2</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.92955189999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3">
+      <c r="B15" s="3">
+        <v>977.33299999999997</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.10833E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93891670000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="3">
-        <v>1076.8800000000001</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6.7304699999999995E-2</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.9326953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
       <c r="B16" s="3">
-        <v>1013.61</v>
+        <v>919.14300000000003</v>
       </c>
       <c r="C16" s="3">
-        <v>6.3350500000000004E-2</v>
+        <v>5.7446400000000002E-2</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>0.93664950000000002</v>
+        <v>0.94255359999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3">
-        <v>973.64800000000002</v>
+        <v>860.82299999999998</v>
       </c>
       <c r="C17" s="3">
-        <v>6.0852999999999997E-2</v>
+        <v>5.3801399999999999E-2</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>0.93914699999999995</v>
+        <v>0.9461986</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3">
-        <v>931.31100000000004</v>
+        <v>805.59100000000001</v>
       </c>
       <c r="C18" s="3">
-        <v>5.8207000000000002E-2</v>
+        <v>5.0349400000000002E-2</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>0.94179299999999999</v>
+        <v>0.94965060000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3">
-        <v>899.88199999999995</v>
+        <v>762.76400000000001</v>
       </c>
       <c r="C19" s="3">
-        <v>5.6242599999999997E-2</v>
+        <v>4.7672800000000001E-2</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>0.94375739999999997</v>
+        <v>0.95232720000000004</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3">
-        <v>854.29899999999998</v>
+        <v>721.93499999999995</v>
       </c>
       <c r="C20" s="3">
-        <v>5.3393700000000002E-2</v>
+        <v>4.5120899999999999E-2</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>0.94660630000000001</v>
+        <v>0.95487909999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3">
-        <v>865.49599999999998</v>
+        <v>688.77599999999995</v>
       </c>
       <c r="C21" s="3">
-        <v>5.4093500000000003E-2</v>
+        <v>4.3048500000000003E-2</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>0.94590649999999998</v>
+        <v>0.95695149999999995</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3">
-        <v>838.56700000000001</v>
+        <v>657.48800000000006</v>
       </c>
       <c r="C22" s="3">
-        <v>5.2410400000000003E-2</v>
+        <v>4.1092999999999998E-2</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>0.94758960000000003</v>
+        <v>0.95890699999999995</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3">
-        <v>830.17200000000003</v>
+        <v>633.6</v>
       </c>
       <c r="C23" s="3">
-        <v>5.18857E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>0.94811429999999997</v>
+        <v>0.96040000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3">
-        <v>847.69299999999998</v>
+        <v>600.20899999999995</v>
       </c>
       <c r="C24" s="3">
-        <v>5.2980800000000002E-2</v>
+        <v>3.7513100000000001E-2</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>0.94701919999999995</v>
+        <v>0.96248690000000003</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3">
-        <v>827.98900000000003</v>
+        <v>570.91899999999998</v>
       </c>
       <c r="C25" s="3">
-        <v>5.1749299999999998E-2</v>
+        <v>3.5682400000000003E-2</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>0.9482507</v>
+        <v>0.9643176</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
-        <v>727.48599999999999</v>
+        <v>547.71</v>
       </c>
       <c r="C26" s="3">
-        <v>4.5467899999999999E-2</v>
+        <v>3.4231900000000003E-2</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>0.95453209999999999</v>
+        <v>0.96576810000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3">
-        <v>729.29499999999996</v>
+        <v>540.62300000000005</v>
       </c>
       <c r="C27" s="3">
-        <v>4.5580900000000001E-2</v>
+        <v>3.3788899999999997E-2</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>0.95441909999999996</v>
+        <v>0.96621109999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3">
-        <v>750.57</v>
+        <v>507.97800000000001</v>
       </c>
       <c r="C28" s="3">
-        <v>4.6910599999999997E-2</v>
+        <v>3.1748600000000002E-2</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>0.95308939999999998</v>
+        <v>0.96825139999999998</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
-        <v>665.34100000000001</v>
+        <v>482.173</v>
       </c>
       <c r="C29" s="3">
-        <v>4.1583799999999997E-2</v>
+        <v>3.0135800000000001E-2</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
-        <v>0.95841620000000005</v>
+        <v>0.96986419999999995</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3">
-        <v>737.61099999999999</v>
+        <v>463.85599999999999</v>
       </c>
       <c r="C30" s="3">
-        <v>4.6100700000000001E-2</v>
+        <v>2.8990999999999999E-2</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="0"/>
-        <v>0.95389930000000001</v>
+        <v>0.97100900000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3">
-        <v>795.27499999999998</v>
+        <v>443.685</v>
       </c>
       <c r="C31" s="3">
-        <v>4.9704699999999997E-2</v>
+        <v>2.7730299999999999E-2</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="0"/>
-        <v>0.95029529999999995</v>
+        <v>0.97226970000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3">
-        <v>670.19299999999998</v>
+        <v>425.34399999999999</v>
       </c>
       <c r="C32" s="3">
-        <v>4.1887099999999997E-2</v>
+        <v>2.6584E-2</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>0.95811290000000005</v>
+        <v>0.97341599999999995</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="3">
-        <v>767.48</v>
+        <v>405.69</v>
       </c>
       <c r="C33" s="3">
-        <v>4.7967500000000003E-2</v>
+        <v>2.5355599999999999E-2</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="0"/>
-        <v>0.95203249999999995</v>
+        <v>0.97464439999999997</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3">
-        <v>706.93</v>
+        <v>389.14699999999999</v>
       </c>
       <c r="C34" s="3">
-        <v>4.4183199999999999E-2</v>
+        <v>2.4321700000000002E-2</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" si="0"/>
-        <v>0.95581680000000002</v>
+        <v>0.9756783</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3">
-        <v>607.20799999999997</v>
+        <v>374.35300000000001</v>
       </c>
       <c r="C35" s="3">
-        <v>3.7950499999999998E-2</v>
+        <v>2.3397100000000001E-2</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="0"/>
-        <v>0.9620495</v>
+        <v>0.97660290000000005</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3">
-        <v>626.22500000000002</v>
+        <v>360.702</v>
       </c>
       <c r="C36" s="3">
-        <v>3.9139100000000003E-2</v>
+        <v>2.2543899999999999E-2</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="0"/>
-        <v>0.96086090000000002</v>
+        <v>0.97745610000000005</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3">
-        <v>692.95500000000004</v>
+        <v>347.72399999999999</v>
       </c>
       <c r="C37" s="3">
-        <v>4.33097E-2</v>
+        <v>2.17328E-2</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="0"/>
-        <v>0.95669029999999999</v>
+        <v>0.9782672</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3">
-        <v>695.83600000000001</v>
+        <v>335.89600000000002</v>
       </c>
       <c r="C38" s="3">
-        <v>4.3489800000000002E-2</v>
+        <v>2.0993499999999998E-2</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" si="0"/>
-        <v>0.95651019999999998</v>
+        <v>0.9790065</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3">
-        <v>717.08799999999997</v>
+        <v>324.51100000000002</v>
       </c>
       <c r="C39" s="3">
-        <v>4.4817999999999997E-2</v>
+        <v>2.0281899999999999E-2</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="0"/>
-        <v>0.95518199999999998</v>
+        <v>0.97971810000000004</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3">
-        <v>686.77599999999995</v>
+        <v>313.29000000000002</v>
       </c>
       <c r="C40" s="3">
-        <v>4.2923500000000003E-2</v>
+        <v>1.95806E-2</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="0"/>
-        <v>0.9570765</v>
+        <v>0.98041940000000005</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3">
-        <v>697.80100000000004</v>
+        <v>300.90800000000002</v>
       </c>
       <c r="C41" s="3">
-        <v>4.3612499999999998E-2</v>
+        <v>1.8806799999999999E-2</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="0"/>
-        <v>0.95638749999999995</v>
+        <v>0.98119319999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3">
-        <v>705.12</v>
+        <v>289.82600000000002</v>
       </c>
       <c r="C42" s="3">
-        <v>4.4069999999999998E-2</v>
+        <v>1.81142E-2</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="0"/>
-        <v>0.95592999999999995</v>
+        <v>0.98188580000000003</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="3">
-        <v>772.35</v>
+        <v>281.62700000000001</v>
       </c>
       <c r="C43" s="3">
-        <v>4.82719E-2</v>
+        <v>1.7601700000000001E-2</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="0"/>
-        <v>0.95172809999999997</v>
+        <v>0.98239829999999995</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="3">
-        <v>726.34799999999996</v>
+        <v>269.84100000000001</v>
       </c>
       <c r="C44" s="3">
-        <v>4.5396800000000001E-2</v>
+        <v>1.6865000000000002E-2</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="0"/>
-        <v>0.95460319999999999</v>
+        <v>0.98313499999999998</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="3">
-        <v>671.23400000000004</v>
+        <v>263.38200000000001</v>
       </c>
       <c r="C45" s="3">
-        <v>4.1952099999999999E-2</v>
+        <v>1.6461400000000001E-2</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="0"/>
-        <v>0.95804789999999995</v>
+        <v>0.98353860000000004</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="3">
-        <v>704.88400000000001</v>
+        <v>249.054</v>
       </c>
       <c r="C46" s="3">
-        <v>4.4055200000000003E-2</v>
+        <v>1.5565900000000001E-2</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="0"/>
-        <v>0.95594480000000004</v>
+        <v>0.98443409999999998</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="3">
-        <v>665.70799999999997</v>
+        <v>239.33799999999999</v>
       </c>
       <c r="C47" s="3">
-        <v>4.1606799999999999E-2</v>
+        <v>1.4958600000000001E-2</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="0"/>
-        <v>0.95839319999999995</v>
+        <v>0.98504139999999996</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3">
-        <v>650.524</v>
+        <v>229.292</v>
       </c>
       <c r="C48" s="3">
-        <v>4.0657699999999998E-2</v>
+        <v>1.4330799999999999E-2</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" si="0"/>
-        <v>0.95934229999999998</v>
+        <v>0.98566920000000002</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="3">
-        <v>706.50400000000002</v>
+        <v>220.61199999999999</v>
       </c>
       <c r="C49" s="3">
-        <v>4.4156500000000001E-2</v>
+        <v>1.37883E-2</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" si="0"/>
-        <v>0.95584349999999996</v>
+        <v>0.98621170000000002</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="3">
-        <v>614.22500000000002</v>
+        <v>212.30799999999999</v>
       </c>
       <c r="C50" s="3">
-        <v>3.8389100000000002E-2</v>
+        <v>1.3269299999999999E-2</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" si="0"/>
-        <v>0.96161090000000005</v>
+        <v>0.98673069999999996</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="3">
-        <v>642.91300000000001</v>
+        <v>204.86199999999999</v>
       </c>
       <c r="C51" s="3">
-        <v>4.0182000000000002E-2</v>
+        <v>1.28039E-2</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="0"/>
-        <v>0.95981799999999995</v>
+        <v>0.98719610000000002</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="3">
-        <v>538.31399999999996</v>
+        <v>197.39400000000001</v>
       </c>
       <c r="C52" s="3">
-        <v>3.3644599999999997E-2</v>
+        <v>1.23371E-2</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" si="0"/>
-        <v>0.96635539999999998</v>
+        <v>0.98766290000000001</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="3">
-        <v>592.053</v>
+        <v>189.67699999999999</v>
       </c>
       <c r="C53" s="3">
-        <v>3.7003300000000003E-2</v>
+        <v>1.18548E-2</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" si="0"/>
-        <v>0.96299670000000004</v>
+        <v>0.98814519999999995</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3">
+        <v>48</v>
+      </c>
+      <c r="B54" s="3">
+        <v>182.66499999999999</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1.1416600000000001E-2</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9885834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="3">
-        <v>576.02300000000002</v>
-      </c>
-      <c r="C54" s="3">
-        <v>3.6001499999999999E-2</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96399849999999998</v>
+      <c r="B55" s="3">
+        <v>176.18</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1.10113E-2</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98898870000000005</v>
       </c>
     </row>
   </sheetData>
@@ -9405,6 +11074,822 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BFE694-5F11-844E-B8C3-B06174379F8E}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3669.61</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.22935</v>
+      </c>
+      <c r="D5" s="3">
+        <f>1-C5</f>
+        <v>0.77065000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2474.67</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.154667</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D54" si="0">1-C6</f>
+        <v>0.845333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2011.41</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.12571299999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.87428700000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1740.75</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.108797</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89120299999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1546.02</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9.6626500000000004E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.90337350000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1421.49</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8.8843400000000003E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.91115659999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1246.73</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7.7920500000000004E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92207949999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1219.42</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7.6213400000000001E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92378660000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1116.06</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.9753899999999994E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93024609999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1127.17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7.04481E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.92955189999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1076.8800000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.7304699999999995E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9326953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1013.61</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.3350500000000004E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93664950000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3">
+        <v>973.64800000000002</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6.0852999999999997E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.93914699999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <v>931.31100000000004</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.8207000000000002E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94179299999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <v>899.88199999999995</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5.6242599999999997E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94375739999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>854.29899999999998</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5.3393700000000002E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94660630000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <v>865.49599999999998</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5.4093500000000003E-2</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94590649999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3">
+        <v>838.56700000000001</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5.2410400000000003E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94758960000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3">
+        <v>830.17200000000003</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5.18857E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94811429999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3">
+        <v>847.69299999999998</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5.2980800000000002E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94701919999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3">
+        <v>827.98900000000003</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5.1749299999999998E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9482507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3">
+        <v>727.48599999999999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4.5467899999999999E-2</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95453209999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3">
+        <v>729.29499999999996</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4.5580900000000001E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95441909999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3">
+        <v>750.57</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4.6910599999999997E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95308939999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3">
+        <v>665.34100000000001</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.1583799999999997E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95841620000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3">
+        <v>737.61099999999999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4.6100700000000001E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95389930000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3">
+        <v>795.27499999999998</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.9704699999999997E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95029529999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3">
+        <v>670.19299999999998</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4.1887099999999997E-2</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95811290000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3">
+        <v>767.48</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.7967500000000003E-2</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95203249999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3">
+        <v>706.93</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4.4183199999999999E-2</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95581680000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3">
+        <v>607.20799999999997</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3.7950499999999998E-2</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9620495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3">
+        <v>626.22500000000002</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3.9139100000000003E-2</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96086090000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3">
+        <v>692.95500000000004</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4.33097E-2</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95669029999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3">
+        <v>695.83600000000001</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4.3489800000000002E-2</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95651019999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3">
+        <v>717.08799999999997</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4.4817999999999997E-2</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95518199999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="3">
+        <v>686.77599999999995</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4.2923500000000003E-2</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9570765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3">
+        <v>697.80100000000004</v>
+      </c>
+      <c r="C41" s="3">
+        <v>4.3612499999999998E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95638749999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="3">
+        <v>705.12</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4.4069999999999998E-2</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95592999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3">
+        <v>772.35</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4.82719E-2</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95172809999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="3">
+        <v>726.34799999999996</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4.5396800000000001E-2</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95460319999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="3">
+        <v>671.23400000000004</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4.1952099999999999E-2</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95804789999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="3">
+        <v>704.88400000000001</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4.4055200000000003E-2</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95594480000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="3">
+        <v>665.70799999999997</v>
+      </c>
+      <c r="C47" s="3">
+        <v>4.1606799999999999E-2</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95839319999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3">
+        <v>650.524</v>
+      </c>
+      <c r="C48" s="3">
+        <v>4.0657699999999998E-2</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95934229999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="3">
+        <v>706.50400000000002</v>
+      </c>
+      <c r="C49" s="3">
+        <v>4.4156500000000001E-2</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95584349999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3">
+        <v>45</v>
+      </c>
+      <c r="B50" s="3">
+        <v>614.22500000000002</v>
+      </c>
+      <c r="C50" s="3">
+        <v>3.8389100000000002E-2</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96161090000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="3">
+        <v>642.91300000000001</v>
+      </c>
+      <c r="C51" s="3">
+        <v>4.0182000000000002E-2</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95981799999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="3">
+        <v>538.31399999999996</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3.3644599999999997E-2</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96635539999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="3">
+        <v>592.053</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3.7003300000000003E-2</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96299670000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="3">
+        <v>576.02300000000002</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3.6001499999999999E-2</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96399849999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1A47E1-7596-0449-B65E-74DED9659E9B}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -9427,55 +11912,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="28" customHeight="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="26"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="6" customHeight="1" thickBot="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="19"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="17" thickBot="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
@@ -9595,13 +12080,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="I1:I3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="G1:H3"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="E1:F3"/>
-    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
